--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/62.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/62.xlsx
@@ -479,13 +479,13 @@
         <v>-16.93765245774573</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.062206710219359</v>
+        <v>-9.061067679872128</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.731420487748839</v>
+        <v>-1.746921774313443</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.742266922322219</v>
+        <v>-7.776581848070384</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-16.23071161380943</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.720854281580914</v>
+        <v>-9.718602405492136</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.743033360369451</v>
+        <v>-1.755981647879918</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.60808391049737</v>
+        <v>-7.635813407916145</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-15.4473367636818</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.26418484951255</v>
+        <v>-10.26648909481269</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.74173722238812</v>
+        <v>-1.755706709520241</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.416373319985975</v>
+        <v>-7.445948832105434</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.65917958686017</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.91370708579342</v>
+        <v>-10.91522579292306</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.742509668255781</v>
+        <v>-1.754973540561105</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.995049922236388</v>
+        <v>-7.021286897131207</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.8741859174647</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.52506525929066</v>
+        <v>-11.53028908812451</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.797458063282506</v>
+        <v>-1.810903858300958</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.746950783385679</v>
+        <v>-6.772048727933268</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.11715167086487</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.32391830178426</v>
+        <v>-12.32789836184814</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.581605266330968</v>
+        <v>-1.595404553526147</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.371188599525299</v>
+        <v>-6.396391282495622</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.39858174722249</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.96427592607592</v>
+        <v>-12.96904152431031</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.487091932116547</v>
+        <v>-1.499843835084389</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.700731771000507</v>
+        <v>-5.729128975864211</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.73497028098976</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.57742774506248</v>
+        <v>-13.58258611238212</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.375165835122631</v>
+        <v>-1.389763752791156</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.309494485181207</v>
+        <v>-5.333152276416206</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.13455673148182</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.21203784840662</v>
+        <v>-14.21968375326619</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.297607033088246</v>
+        <v>-1.310241105330512</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.907181111157807</v>
+        <v>-4.933758485926511</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.60269489215952</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.05721145835425</v>
+        <v>-15.065917839744</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.186283182025049</v>
+        <v>-1.196953408841056</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.340847367133262</v>
+        <v>-4.366050050103585</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.14122145041026</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.83765672305238</v>
+        <v>-15.8464154736535</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9464191016617861</v>
+        <v>-0.958608035607433</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.819668975609831</v>
+        <v>-3.842043721166341</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.747463964563249</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.60373973153314</v>
+        <v>-16.61406955847526</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8579675036630848</v>
+        <v>-0.8708241450536598</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.350545580185102</v>
+        <v>-3.370314957476109</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.431072743848192</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.33709198290959</v>
+        <v>-17.34668864089257</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6723317416702509</v>
+        <v>-0.6853978599062934</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.768684364990271</v>
+        <v>-2.787799127139191</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.195819061025572</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.1000852079197</v>
+        <v>-18.1110041884897</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4915925009402225</v>
+        <v>-0.5047371729933154</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.488509084177333</v>
+        <v>-2.508199907651289</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-9.044454723112555</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.96793468638919</v>
+        <v>-18.9796392051297</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3298370993306969</v>
+        <v>-0.3425366330871712</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.920237679332213</v>
+        <v>-1.941643594478435</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-8.976219682223466</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.79862820939387</v>
+        <v>-19.80788446750297</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.08685705089110282</v>
+        <v>-0.097697477644052</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.6493579335369</v>
+        <v>-1.668917833982439</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-8.983885701433588</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.53751850487237</v>
+        <v>-20.55041442317146</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01959646351497184</v>
+        <v>0.01212075859234626</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.20737488190307</v>
+        <v>-1.22679076701735</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-9.06303818422071</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.25248916305902</v>
+        <v>-21.26668121933946</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2958571457782336</v>
+        <v>0.2861295647668312</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.8243333776626905</v>
+        <v>-0.845006123849776</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-9.204267889374993</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.89810989309306</v>
+        <v>-21.91306130293831</v>
       </c>
       <c r="F20" t="n">
-        <v>0.447871874073515</v>
+        <v>0.4387465389928319</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.5923639559129881</v>
+        <v>-0.6115965487874836</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-9.401122192384793</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.51647244861063</v>
+        <v>-22.53105727397631</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6351703585272481</v>
+        <v>0.626712730891493</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2475912528789738</v>
+        <v>-0.2677141223467067</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-9.644402269091655</v>
       </c>
       <c r="E22" t="n">
-        <v>-22.96874605027805</v>
+        <v>-22.98337015255226</v>
       </c>
       <c r="F22" t="n">
-        <v>0.802647096478608</v>
+        <v>0.7953415914929248</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1370922168948057</v>
+        <v>-0.158301747498402</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.923162670550767</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.41384506998822</v>
+        <v>-23.42960820260965</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8824446822989284</v>
+        <v>0.8755581310041805</v>
       </c>
       <c r="G23" t="n">
-        <v>0.009567759538209677</v>
+        <v>-0.0146268161133001</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.22717540258568</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.9074903486355</v>
+        <v>-23.92176095873298</v>
       </c>
       <c r="F24" t="n">
-        <v>1.027638320813671</v>
+        <v>1.022087184408779</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.04590432760218367</v>
+        <v>-0.06494053593405338</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.54239217798663</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.16070857789732</v>
+        <v>-24.17458641890955</v>
       </c>
       <c r="F25" t="n">
-        <v>1.083594823159208</v>
+        <v>1.078096055965683</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1514359531311534</v>
+        <v>0.1289695614547514</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.86134945276931</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.42588007965364</v>
+        <v>-24.44119807397846</v>
       </c>
       <c r="F26" t="n">
-        <v>1.221522233596792</v>
+        <v>1.216337681671468</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04760089929342391</v>
+        <v>0.0251999691312306</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-11.17193328320917</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.47680913770796</v>
+        <v>-24.48996690206389</v>
       </c>
       <c r="F27" t="n">
-        <v>1.190467291256218</v>
+        <v>1.185282739330894</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1555654562044812</v>
+        <v>-0.1787912014457033</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-11.462272707681</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.55834799980623</v>
+        <v>-24.57272334832644</v>
       </c>
       <c r="F28" t="n">
-        <v>1.117883564301688</v>
+        <v>1.112777566193415</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.5159834611343581</v>
+        <v>-0.5407802827165873</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-11.71858885354078</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.36704327068292</v>
+        <v>-24.38257074185321</v>
       </c>
       <c r="F29" t="n">
-        <v>1.135636726955069</v>
+        <v>1.128435960392119</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.5705783639843559</v>
+        <v>-0.5931625863863333</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-11.9309099860277</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.10857502798157</v>
+        <v>-24.12360499164387</v>
       </c>
       <c r="F30" t="n">
-        <v>1.021092169392807</v>
+        <v>1.012870203208204</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.8899127225968964</v>
+        <v>-0.9139501906143055</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-12.09305032315492</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.88275898856748</v>
+        <v>-23.89884942875996</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9541381326602203</v>
+        <v>0.9457721511443573</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.112743716963074</v>
+        <v>-1.133704493812677</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-12.20003492840904</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.53722693196864</v>
+        <v>-23.55238781865936</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9277178655256171</v>
+        <v>0.9192733301927039</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.359847840797812</v>
+        <v>-1.381567971212236</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-12.24830180940811</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.20030961063966</v>
+        <v>-23.21531338969628</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8925781246984243</v>
+        <v>0.8831123897438564</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.644278120034311</v>
+        <v>-1.665474558335065</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-12.23366895876824</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.74512951774137</v>
+        <v>-22.76243754209813</v>
       </c>
       <c r="F34" t="n">
-        <v>0.824249396167456</v>
+        <v>0.8157132147146506</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.887716399073365</v>
+        <v>-1.905613577058005</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-12.15937797224175</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.38863920366401</v>
+        <v>-22.40356442890358</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7420297343214163</v>
+        <v>0.7315689843508771</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.177710907017598</v>
+        <v>-2.191025779007633</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-12.03007866652025</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.81206727881724</v>
+        <v>-21.82798751907278</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7905629009556948</v>
+        <v>0.7798533972311629</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.484568301021973</v>
+        <v>-2.494426805061793</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.85587168734469</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.36207173784427</v>
+        <v>-21.37972016207492</v>
       </c>
       <c r="F37" t="n">
-        <v>0.809625293893248</v>
+        <v>0.7983659134493636</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.665333726357685</v>
+        <v>-2.675035122763404</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-11.64635050170642</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.87829805553965</v>
+        <v>-20.89385171131562</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9053823968776324</v>
+        <v>0.8947776315758343</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.795772339569802</v>
+        <v>-2.805958151180665</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-11.41000866023588</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.38128805506205</v>
+        <v>-20.39657986478118</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9258980354306172</v>
+        <v>0.9150183317691428</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.861430238321058</v>
+        <v>-2.869626019899979</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-11.15783817708713</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.72193349934704</v>
+        <v>-19.73824650868783</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9436250134783143</v>
+        <v>0.9332428173248255</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.985335792415154</v>
+        <v>-2.992300897526952</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-10.89970579527934</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.18834360472965</v>
+        <v>-19.20608367508019</v>
       </c>
       <c r="F41" t="n">
-        <v>1.014912602451513</v>
+        <v>1.003810329641729</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.142665995664176</v>
+        <v>-3.148518255034428</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.64877326739691</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.43088842382159</v>
+        <v>-18.44727998697943</v>
       </c>
       <c r="F42" t="n">
-        <v>0.990141965474967</v>
+        <v>0.9797859539271617</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.357392854571325</v>
+        <v>-3.362538129588123</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.41380563873764</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.90574306453712</v>
+        <v>-17.92310345810525</v>
       </c>
       <c r="F43" t="n">
-        <v>1.100326786190934</v>
+        <v>1.089355436409567</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.391917257164957</v>
+        <v>-3.397743331929525</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.20079887107472</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.35124476228149</v>
+        <v>-17.3673744793825</v>
       </c>
       <c r="F44" t="n">
-        <v>1.044514299176655</v>
+        <v>1.035768640878382</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.537307280222325</v>
+        <v>-3.544154554608547</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.01041988295252</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.69648560486393</v>
+        <v>-16.71465772120824</v>
       </c>
       <c r="F45" t="n">
-        <v>1.067386552241151</v>
+        <v>1.057632786624065</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.717012229027857</v>
+        <v>-3.722157504044655</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.84606492447416</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.2217456115201</v>
+        <v>-16.24070326603492</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8888075414800073</v>
+        <v>0.8828505436870219</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.879108030511267</v>
+        <v>-3.881962152530763</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.708374838464175</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.62787875461941</v>
+        <v>-15.64385136408631</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9679897890667665</v>
+        <v>0.9611163300748603</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.847306826908715</v>
+        <v>-3.85288414791929</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.594972624429856</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.97399678149224</v>
+        <v>-14.99317700515537</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9523968563822708</v>
+        <v>0.9438868595351488</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.991361435076227</v>
+        <v>-3.999007339935794</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.501318537061083</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.47067629104492</v>
+        <v>-14.48823306915568</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8694833024856196</v>
+        <v>0.8634608431784255</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.098862333709639</v>
+        <v>-4.10425636248043</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.418617200686205</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.95101660665113</v>
+        <v>-13.96675355466689</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8621777974999364</v>
+        <v>0.8572943685399725</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.17024156880273</v>
+        <v>-4.178214781233341</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.344183107672958</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.47233583015194</v>
+        <v>-13.48486516397148</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9740122483739605</v>
+        <v>0.9675315584673061</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.261900780997654</v>
+        <v>-4.271628362009056</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.273578469510914</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.8310748369642</v>
+        <v>-12.8469819849169</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8631335356073824</v>
+        <v>0.8589178140923466</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.366992695908189</v>
+        <v>-4.378134245626498</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.205443926344257</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.43234875391943</v>
+        <v>-12.4456112566981</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8760032693007992</v>
+        <v>0.8721017630539648</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.555011257018217</v>
+        <v>-4.566453929701885</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.138150341604518</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.79864201947137</v>
+        <v>-11.81505976723489</v>
       </c>
       <c r="F54" t="n">
-        <v>0.854597354154577</v>
+        <v>0.8498972174343974</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.74071248052526</v>
+        <v>-4.750714999896338</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.069064870196589</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.41803568355955</v>
+        <v>-11.43331440097584</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8161976299197945</v>
+        <v>0.8100966167955501</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.959223014953667</v>
+        <v>-4.970259826249243</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.999240651458427</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.03297796468154</v>
+        <v>-11.04549420619823</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7388352124280352</v>
+        <v>0.7331400606918843</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.157597587611501</v>
+        <v>-5.169511583197472</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.928840287305755</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.47495783296149</v>
+        <v>-10.48740861296397</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7206892806894027</v>
+        <v>0.7145097137481081</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.23890078825862</v>
+        <v>-5.250814783844591</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.862723247653866</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.24146970408215</v>
+        <v>-10.25147222345323</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6331017746782555</v>
+        <v>0.6270531307653779</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.3777053829866</v>
+        <v>-5.389095686458901</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.803455485600388</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.735740229911956</v>
+        <v>-9.745742749283036</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6630569635801247</v>
+        <v>0.6574403656610242</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.591790719054504</v>
+        <v>-5.603338130160907</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.753427381579884</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.60500049373448</v>
+        <v>-9.611206245281458</v>
       </c>
       <c r="F60" t="n">
-        <v>0.645788216131888</v>
+        <v>0.6416379561310608</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.648179267393819</v>
+        <v>-5.658954232632559</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.714270686115961</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.228675340851906</v>
+        <v>-9.232812508549891</v>
       </c>
       <c r="F61" t="n">
-        <v>0.67781198888275</v>
+        <v>0.6743294363268508</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.658928048026875</v>
+        <v>-5.671431197240724</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.688906077597196</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.953972642626809</v>
+        <v>-8.955923395750226</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6386267264774638</v>
+        <v>0.6355631276124999</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.741200079084282</v>
+        <v>-5.757238150065397</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.682255740988332</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.624282272466463</v>
+        <v>-8.63002979341398</v>
       </c>
       <c r="F63" t="n">
-        <v>0.599087971895451</v>
+        <v>0.5965873420526814</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.731079728987628</v>
+        <v>-5.744316047160613</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.69641080245902</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.31296040319306</v>
+        <v>-8.318236601238274</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4941138877104915</v>
+        <v>0.4915739809591966</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.655943002978963</v>
+        <v>-5.668799644369537</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.731846838438338</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.204935812445978</v>
+        <v>-8.209033703235438</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3556496928563966</v>
+        <v>0.355387846799562</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.677008518251299</v>
+        <v>-5.692418158696011</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.78490364573373</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.004584302059044</v>
+        <v>-8.009192792659331</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3105728941723337</v>
+        <v>0.3091589254654273</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.659975432254214</v>
+        <v>-5.676825226011515</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.855311991190495</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.87493122701743</v>
+        <v>-7.877798441339768</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2146324989481651</v>
+        <v>0.2136243916293522</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.611756480888137</v>
+        <v>-5.628724105371013</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.940525656292223</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.727734466167904</v>
+        <v>-7.731976372288623</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1598019346470163</v>
+        <v>0.1583094121230595</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.557213947249506</v>
+        <v>-5.574050648703966</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.039838451228578</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.657585907541936</v>
+        <v>-7.664105874357115</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1543031674534914</v>
+        <v>0.1518287222164051</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.466693765401812</v>
+        <v>-5.483530466856272</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.150545321333428</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.664969966344669</v>
+        <v>-7.671620856188266</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04661897658029445</v>
+        <v>0.04375176225795644</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.369378678379262</v>
+        <v>-5.385010887972283</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.268012308174329</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.740119784656176</v>
+        <v>-7.744688998347939</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0490541449088555</v>
+        <v>0.04562396156432327</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.201129494560241</v>
+        <v>-5.215531027686139</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.389945132953098</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.746809951408299</v>
+        <v>-7.753290641314953</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.0235164897428321</v>
+        <v>-0.0262789656424363</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.122981538897977</v>
+        <v>-5.137147410572725</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.511826626848432</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.965202655111131</v>
+        <v>-7.971015637572858</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.0576219386455285</v>
+        <v>-0.06089501435596002</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.854497684522701</v>
+        <v>-4.868755202317341</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.634036585783347</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.09103277772296</v>
+        <v>-8.096544637219328</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1171788242725404</v>
+        <v>-0.1177941625061015</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.719751703675656</v>
+        <v>-4.733014206454325</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.75375015216871</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.438855987319098</v>
+        <v>-8.443425201010859</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.196007579682573</v>
+        <v>-0.1994115784214218</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.478303454668544</v>
+        <v>-4.490479296311349</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.867489285384513</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.697075476266461</v>
+        <v>-8.702443320431568</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.18946142826171</v>
+        <v>-0.1916347505334365</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.192118806851254</v>
+        <v>-4.199869450133556</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.971669909137193</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.21710174513982</v>
+        <v>-9.222351758579352</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2576330491585777</v>
+        <v>-0.2602384174240812</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.968580828131623</v>
+        <v>-3.979984223906766</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.06222398888034</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.670200161886276</v>
+        <v>-9.674730098669512</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.2031428847313138</v>
+        <v>-0.207240775520774</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.882119260164864</v>
+        <v>-3.893103702249072</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.14094681267705</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.11434344348899</v>
+        <v>-10.11735467314259</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2713930594452317</v>
+        <v>-0.2748363350926057</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.737488590672316</v>
+        <v>-3.747975525248539</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.20718552477284</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.71064546871825</v>
+        <v>-10.71560745149526</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3249405780678914</v>
+        <v>-0.3298240070278552</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.408688497105208</v>
+        <v>-3.419306354709847</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.26066484787776</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.3900312477811</v>
+        <v>-11.39621081472239</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3398396187017756</v>
+        <v>-0.3448146937816315</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.245414388366042</v>
+        <v>-3.255704938399639</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.29884199993733</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.23791496441696</v>
+        <v>-12.24328280858207</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.4028005030676363</v>
+        <v>-0.4081814395355857</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.9074104059012</v>
+        <v>-2.917137986912603</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.32451209874282</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.15685060857487</v>
+        <v>-13.16285997557922</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3791034349241121</v>
+        <v>-0.3854793864080327</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.768631995778904</v>
+        <v>-2.778791622784083</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.34056491364637</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.10351575015156</v>
+        <v>-14.11282437747202</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4350206603611241</v>
+        <v>-0.4406241659773829</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.489517191496146</v>
+        <v>-2.499886295346793</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.35242633383198</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.32790791190978</v>
+        <v>-15.33599895506597</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4834098116641437</v>
+        <v>-0.4914092087004383</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.288537250572809</v>
+        <v>-2.298644508366621</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.36416462801152</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.3936606401348</v>
+        <v>-16.40131963729722</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5791014531343195</v>
+        <v>-0.5871532193819811</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.04597615582415</v>
+        <v>-2.058597135763574</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.37797583820513</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.56361500667713</v>
+        <v>-17.57399720283062</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5104846939408332</v>
+        <v>-0.5179865834691423</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.98401028647426</v>
+        <v>-1.994392482627749</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-10.39872408296972</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.94380557225189</v>
+        <v>-18.95441033755369</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6647905752334167</v>
+        <v>-0.672423387790143</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.955704727730449</v>
+        <v>-1.967003385082858</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-10.42943948149532</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.47733318870895</v>
+        <v>-20.49068733760751</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6484513812869425</v>
+        <v>-0.6555474094271581</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.942782624825665</v>
+        <v>-1.953937266846816</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-10.47758696438772</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.11210358304108</v>
+        <v>-22.12617780859593</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6815749074765095</v>
+        <v>-0.6900849043236315</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.956176050632751</v>
+        <v>-1.968247153852822</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-10.54693783034752</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.82453751783032</v>
+        <v>-23.83844154344823</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8272005919850285</v>
+        <v>-0.8336812818916829</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.000153095878109</v>
+        <v>-2.011962353041346</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-10.64057953297512</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.55842973697715</v>
+        <v>-25.57224211647517</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8743197899124007</v>
+        <v>-0.8814812795668248</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.0625902881303</v>
+        <v>-2.076743067502206</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-10.7606943521435</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.57560011271041</v>
+        <v>-27.59066935328124</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.049128217455127</v>
+        <v>-1.056512276257861</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.256618216244681</v>
+        <v>-2.26919991927558</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-10.9061796058815</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.62902307501242</v>
+        <v>-29.64239031621382</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.075875792160774</v>
+        <v>-1.083822819985701</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.320665761746405</v>
+        <v>-2.331375265470936</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-11.08238274201137</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.83125315141347</v>
+        <v>-31.84666279185819</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.306797829683138</v>
+        <v>-1.316944364385475</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.532905083113626</v>
+        <v>-2.543640771443841</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-11.29197569982458</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.09167851394601</v>
+        <v>-34.10553017035255</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.437498288952089</v>
+        <v>-1.446597439427089</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.753143801517142</v>
+        <v>-2.764010412875774</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-11.5310746295319</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.30744603148541</v>
+        <v>-36.32136314940616</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.615736899839348</v>
+        <v>-1.622335420471578</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.833425802542606</v>
+        <v>-2.846753766835483</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-11.80056820028776</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.64541710374948</v>
+        <v>-38.65936040627592</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.887284353079588</v>
+        <v>-1.893503196929408</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.098152166002307</v>
+        <v>-3.110668407518997</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-12.0890538925427</v>
       </c>
       <c r="E99" t="n">
-        <v>-40.95359009474578</v>
+        <v>-40.96572665948007</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.903780654660163</v>
+        <v>-1.908952114282645</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.351462041384023</v>
+        <v>-3.358387869587296</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-12.40838615740384</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.28312972397979</v>
+        <v>-43.2959994576732</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.242871298260868</v>
+        <v>-2.247427419649789</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.398960916093805</v>
+        <v>-3.411477157610495</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.73151394434982</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.62857650116649</v>
+        <v>-45.64130221952865</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.279778499971694</v>
+        <v>-2.284190606029356</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.663857479490449</v>
+        <v>-3.674069475706995</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-13.09372335898801</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.16826068331304</v>
+        <v>-48.17805372583865</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.549597769236827</v>
+        <v>-2.551325953211935</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.686533348012318</v>
+        <v>-3.698434251295447</v>
       </c>
     </row>
   </sheetData>
